--- a/TestData/TMTT0008026_AdditionalClientAndSubject_MassEdit_EditFunctionalities.xlsx
+++ b/TestData/TMTT0008026_AdditionalClientAndSubject_MassEdit_EditFunctionalities.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2234392-8C7B-4404-BD86-BD446944885D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3010A239-4B74-416F-82E5-D02CBDDBDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
     <sheet name="AddContact" sheetId="3" r:id="rId3"/>
+    <sheet name="Add" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>Client</t>
   </si>
@@ -50,12 +51,6 @@
     <t>AdditonalSubject</t>
   </si>
   <si>
-    <t>BUS - Business Services</t>
-  </si>
-  <si>
-    <t>Dealership &amp; Rental Services</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -74,9 +69,6 @@
     <t>PrimaryOffice</t>
   </si>
   <si>
-    <t>AM</t>
-  </si>
-  <si>
     <t>LegalEntity</t>
   </si>
   <si>
@@ -224,9 +216,6 @@
     <t>Ayati Arvind</t>
   </si>
   <si>
-    <t>Jessica Maring</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -267,6 +256,24 @@
   </si>
   <si>
     <t>Ad Exchange Group</t>
+  </si>
+  <si>
+    <t>ABC Auto Parts Ltd</t>
+  </si>
+  <si>
+    <t>Eric Winthrop</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Derek Janisch</t>
+  </si>
+  <si>
+    <t>HC - Healthcare</t>
+  </si>
+  <si>
+    <t>Dental</t>
   </si>
 </sst>
 </file>
@@ -655,17 +662,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -988,259 +996,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" style="3"/>
-    <col min="25" max="25" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" style="3" customWidth="1"/>
-    <col min="27" max="28" width="8.85546875" style="3"/>
-    <col min="29" max="29" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>66</v>
+      <c r="AH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>68</v>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AF3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1257,29 +1267,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1292,108 +1302,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>75</v>
       </c>
-      <c r="E3" t="s">
-        <v>72</v>
+      <c r="E6" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
         <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -1403,4 +1413,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AF0DCE-D707-4F9D-8609-6E156A9724BA}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/TMTT0008026_AdditionalClientAndSubject_MassEdit_EditFunctionalities.xlsx
+++ b/TestData/TMTT0008026_AdditionalClientAndSubject_MassEdit_EditFunctionalities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3010A239-4B74-416F-82E5-D02CBDDBDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603DCB55-49AE-48FF-A5CB-8E15E69653CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="83">
   <si>
     <t>Client</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Dental</t>
+  </si>
+  <si>
+    <t>Debtor Advisors</t>
   </si>
 </sst>
 </file>
@@ -998,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1152,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -1249,16 +1252,119 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>7</v>
+      </c>
       <c r="AF3" t="s">
         <v>77</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://hl--test.my.salesforce.com/0015A00002HSbJ5" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://hl--test.my.salesforce.com/0015A00002HSbJ5" xr:uid="{B94F3FDA-88E9-4B19-A699-DCDD1CFE6D04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1302,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,7 +1451,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -1420,7 +1526,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
